--- a/Female_T_scores_v2.xlsx
+++ b/Female_T_scores_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alfie\Documents\Github\TSCYC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933DE9AB-6B56-477E-A469-795AFEFA0760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79BC648D-3D92-4EC7-B0C3-27CE86B17536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" firstSheet="4" activeTab="8" xr2:uid="{94F15283-ECA5-4C87-AE90-7EBBA0528CB9}"/>
+    <workbookView xWindow="9200" yWindow="0" windowWidth="29200" windowHeight="19100" firstSheet="4" activeTab="8" xr2:uid="{94F15283-ECA5-4C87-AE90-7EBBA0528CB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Female_RL" sheetId="1" r:id="rId1"/>
@@ -3622,15 +3622,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FD18483-C5AA-4A9C-B9FD-D0CE5D14DA6D}">
-  <dimension ref="A1:F83"/>
+  <dimension ref="A1:C83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56:C83"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3640,11 +3640,8 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="F1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>27</v>
       </c>
@@ -3655,7 +3652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>28</v>
       </c>
@@ -3666,7 +3663,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>29</v>
       </c>
@@ -3677,7 +3674,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>30</v>
       </c>
@@ -3688,7 +3685,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>31</v>
       </c>
@@ -3699,7 +3696,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>32</v>
       </c>
@@ -3710,7 +3707,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>33</v>
       </c>
@@ -3721,7 +3718,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>34</v>
       </c>
@@ -3732,7 +3729,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>35</v>
       </c>
@@ -3743,7 +3740,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>36</v>
       </c>
@@ -3754,7 +3751,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>37</v>
       </c>
@@ -3765,7 +3762,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>38</v>
       </c>
@@ -3776,7 +3773,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>39</v>
       </c>
@@ -3787,7 +3784,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>40</v>
       </c>
@@ -3798,7 +3795,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>41</v>
       </c>

--- a/Female_T_scores_v2.xlsx
+++ b/Female_T_scores_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alfie\Documents\Github\TSCYC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79BC648D-3D92-4EC7-B0C3-27CE86B17536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2CDD414-EE10-48F9-9928-DC634CDF6CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9200" yWindow="0" windowWidth="29200" windowHeight="19100" firstSheet="4" activeTab="8" xr2:uid="{94F15283-ECA5-4C87-AE90-7EBBA0528CB9}"/>
+    <workbookView xWindow="9200" yWindow="340" windowWidth="29200" windowHeight="19100" activeTab="5" xr2:uid="{94F15283-ECA5-4C87-AE90-7EBBA0528CB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Female_RL" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="13">
   <si>
     <t>Raw_Score</t>
   </si>
@@ -82,9 +82,6 @@
   </si>
   <si>
     <t>&gt;=107</t>
-  </si>
-  <si>
-    <t>%ile</t>
   </si>
   <si>
     <t xml:space="preserve"> &gt;=99</t>
@@ -2619,8 +2616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E818F071-CCA6-4732-8337-3D7EC62CC188}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2640,11 +2637,11 @@
       <c r="A2">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
+      <c r="B2">
+        <v>43</v>
+      </c>
+      <c r="C2">
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -2652,10 +2649,10 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C3">
-        <v>18</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -2663,10 +2660,10 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C4">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -2674,10 +2671,10 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C5">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -2685,10 +2682,10 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C6">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -2696,10 +2693,10 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C7">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -2707,10 +2704,10 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C8">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -2718,10 +2715,10 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C9">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -2729,7 +2726,7 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C10">
         <v>98</v>
@@ -2740,10 +2737,10 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C11">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -2751,7 +2748,7 @@
         <v>19</v>
       </c>
       <c r="B12">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C12">
         <v>99</v>
@@ -2762,7 +2759,7 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C13">
         <v>99</v>
@@ -2773,7 +2770,7 @@
         <v>21</v>
       </c>
       <c r="B14">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C14">
         <v>99</v>
@@ -2784,7 +2781,7 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C15">
         <v>99</v>
@@ -2795,7 +2792,7 @@
         <v>23</v>
       </c>
       <c r="B16">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C16">
         <v>99</v>
@@ -2808,8 +2805,8 @@
       <c r="B17">
         <v>110</v>
       </c>
-      <c r="C17">
-        <v>99</v>
+      <c r="C17" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -2820,7 +2817,7 @@
         <v>110</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -2831,7 +2828,7 @@
         <v>110</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -2842,7 +2839,7 @@
         <v>110</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
@@ -2853,7 +2850,7 @@
         <v>110</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -2864,7 +2861,7 @@
         <v>110</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -2875,7 +2872,7 @@
         <v>110</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -2886,7 +2883,7 @@
         <v>110</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
@@ -2897,7 +2894,7 @@
         <v>110</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -2908,7 +2905,7 @@
         <v>110</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -2919,7 +2916,7 @@
         <v>110</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
@@ -2930,7 +2927,7 @@
         <v>110</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
@@ -2941,7 +2938,7 @@
         <v>110</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -3100,7 +3097,7 @@
         <v>109</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -3111,7 +3108,7 @@
         <v>110</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -3122,7 +3119,7 @@
         <v>110</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -3133,7 +3130,7 @@
         <v>110</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -3144,7 +3141,7 @@
         <v>110</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -3155,7 +3152,7 @@
         <v>110</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -3166,7 +3163,7 @@
         <v>110</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -3177,7 +3174,7 @@
         <v>110</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
@@ -3188,7 +3185,7 @@
         <v>110</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -3199,7 +3196,7 @@
         <v>110</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -3210,7 +3207,7 @@
         <v>110</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -3221,7 +3218,7 @@
         <v>110</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
@@ -3232,7 +3229,7 @@
         <v>110</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -3243,7 +3240,7 @@
         <v>110</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -3254,7 +3251,7 @@
         <v>110</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
@@ -3265,7 +3262,7 @@
         <v>110</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
@@ -3276,7 +3273,7 @@
         <v>110</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -3490,7 +3487,7 @@
         <v>100</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -3501,7 +3498,7 @@
         <v>104</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -3512,7 +3509,7 @@
         <v>107</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
@@ -3523,7 +3520,7 @@
         <v>110</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -3534,7 +3531,7 @@
         <v>110</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -3545,7 +3542,7 @@
         <v>110</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -3556,7 +3553,7 @@
         <v>110</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
@@ -3567,7 +3564,7 @@
         <v>110</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -3578,7 +3575,7 @@
         <v>110</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -3589,7 +3586,7 @@
         <v>110</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
@@ -3600,7 +3597,7 @@
         <v>110</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
@@ -3611,7 +3608,7 @@
         <v>110</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -3624,7 +3621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FD18483-C5AA-4A9C-B9FD-D0CE5D14DA6D}">
   <dimension ref="A1:C83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
